--- a/va_facility_data_2025-02-20/Russellville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Russellville%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Russellville VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Russellville%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc693fd2106e34e25a1afe9cdd4883e9d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5e025b95f2924996951736c9ad34ce13"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc13af0bfad5e4452964acaa6b66d0900"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R66fcbd78bb614a3eb0eb0d128af39157"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1db5ea27b5684ee89583bdd75311ade3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6396ff390acb4e47961fb6708b80eed8"/>
   </x:sheets>
 </x:workbook>
 </file>
